--- a/v1/BOM.xlsx
+++ b/v1/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AEC8C7-18C7-4FAB-AF16-FE4114E5A05E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE783D7-622E-4A8C-83AD-51DC634CF996}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,6 +851,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29A34C3-8CE2-43FA-B5BE-FDBE4F8E6C0F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1831,8 +1834,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1846,6 +1850,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
